--- a/literature_list/research_articles.xlsx
+++ b/literature_list/research_articles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12280"/>
+    <workbookView windowWidth="27948" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="260">
   <si>
     <t>Title</t>
   </si>
@@ -143,6 +143,123 @@
     <t>10.1016/j.aei.2025.103208</t>
   </si>
   <si>
+    <t>Dual data mapping with fine-tuned large language models and asset administration shells toward interoperable knowledge representation</t>
+  </si>
+  <si>
+    <t>Robotics and Computer-Integrated Manufacturing</t>
+  </si>
+  <si>
+    <t>10.1016/j.rcim.2024.102837</t>
+  </si>
+  <si>
+    <t>Optimizing Quadcopter Chassis Through Generative Design: A Novel Approach</t>
+  </si>
+  <si>
+    <t>Lecture Notes in Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>10.1007/978-981-97-6176-0_8</t>
+  </si>
+  <si>
+    <t>Human-LLM collaboration in generative design for customization</t>
+  </si>
+  <si>
+    <t>Journal of Manufacturing Systems</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmsy.2025.03.012</t>
+  </si>
+  <si>
+    <t>A generative pre-trained transformer industrial bot to improve operators’ working experience in a small Industry 5.0 factory</t>
+  </si>
+  <si>
+    <t>International Journal of Advanced Manufacturing Technology</t>
+  </si>
+  <si>
+    <t>10.1007/s00170-025-15033-9</t>
+  </si>
+  <si>
+    <t>Generative AI in AI-Based Digital Twins for Fault Diagnosis for Predictive Maintenance in Industry 4.0/5.0</t>
+  </si>
+  <si>
+    <t>Applied Sciences (Switzerland)</t>
+  </si>
+  <si>
+    <t>10.3390/app15063166</t>
+  </si>
+  <si>
+    <t>Generative AI and CAD automation for diverse and novel mechanical component designs under data constraints</t>
+  </si>
+  <si>
+    <t>Discover Applied Sciences</t>
+  </si>
+  <si>
+    <t>10.1007/s42452-025-06833-5</t>
+  </si>
+  <si>
+    <t>LLM4CAD: Multimodal Large Language Models for Three-Dimensional Computer-Aided Design Generation</t>
+  </si>
+  <si>
+    <t>Journal of Computing and Information Science in Engineering</t>
+  </si>
+  <si>
+    <t>10.1115/1.4067085</t>
+  </si>
+  <si>
+    <t>Revolutionizing Real-Time Drilling: Leveraging Large Language Models and Retrieval-Augmented Generation for Enhanced Operational Efficiency</t>
+  </si>
+  <si>
+    <t>Proceedings of the Annual Offshore Technology Conference</t>
+  </si>
+  <si>
+    <t>10.4043/35742-MS</t>
+  </si>
+  <si>
+    <t>AI-Driven 3D Printing: Generative Gcode for Quality and Efficiency</t>
+  </si>
+  <si>
+    <t>Conference Proceedings - IEEE SOUTHEASTCON</t>
+  </si>
+  <si>
+    <t>10.1109/SoutheastCon56624.2025.10971689</t>
+  </si>
+  <si>
+    <t>A large manufacturing decision model for human-centric decision-making</t>
+  </si>
+  <si>
+    <t>CIRP Annals</t>
+  </si>
+  <si>
+    <t>10.1016/j.cirp.2025.04.017</t>
+  </si>
+  <si>
+    <t>AInnovation - Integrating Artificial Intelligence and Innovation in the Design of Intelligent Technical Systems</t>
+  </si>
+  <si>
+    <t>Mechanisms and Machine Science</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-031-87537-3_17</t>
+  </si>
+  <si>
+    <t>Leveraging Generative AI Tools for Proactive Risk Mitigation in Design</t>
+  </si>
+  <si>
+    <t>Proceedings - Annual Reliability and Maintainability Symposium</t>
+  </si>
+  <si>
+    <t>10.1109/RAMS48127.2025.10935137</t>
+  </si>
+  <si>
+    <t>Generative AI for Intelligent Manufacturing Virtual Assistants in the Semiconductor Industry</t>
+  </si>
+  <si>
+    <t>IEEE Robotics and Automation Letters</t>
+  </si>
+  <si>
+    <t>10.1109/LRA.2025.3544506</t>
+  </si>
+  <si>
     <t>The E(G)TL Model: A Novel Approach for Efficient Data Handling and Extraction in Multivariate Systems</t>
   </si>
   <si>
@@ -191,18 +308,12 @@
     <t>Generative AI and DT integrated intelligent process planning: a conceptual framework</t>
   </si>
   <si>
-    <t>International Journal of Advanced Manufacturing Technology</t>
-  </si>
-  <si>
     <t>10.1007/s00170-024-13861-9</t>
   </si>
   <si>
     <t>Leveraging error-assisted fine-tuning large language models for manufacturing excellence</t>
   </si>
   <si>
-    <t>Robotics and Computer-Integrated Manufacturing</t>
-  </si>
-  <si>
     <t>10.1016/j.rcim.2024.102728</t>
   </si>
   <si>
@@ -218,9 +329,6 @@
     <t>LLM enabled generative collaborative design in a mixed reality environment</t>
   </si>
   <si>
-    <t>Journal of Manufacturing Systems</t>
-  </si>
-  <si>
     <t>10.1016/j.jmsy.2024.04.030</t>
   </si>
   <si>
@@ -375,9 +483,6 @@
   </si>
   <si>
     <t>Generative AI and neural networks towards advanced robot cognition</t>
-  </si>
-  <si>
-    <t>CIRP Annals</t>
   </si>
   <si>
     <t>10.1016/j.cirp.2024.04.013</t>
@@ -712,10 +817,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1175,19 +1280,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1320,11 +1425,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1860,18 +1968,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="60" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="84.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="84.2685185185185" customWidth="1"/>
     <col min="2" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="7.27272727272727" customWidth="1"/>
-    <col min="6" max="6" width="6.90909090909091" customWidth="1"/>
+    <col min="5" max="5" width="7.26851851851852" customWidth="1"/>
+    <col min="6" max="6" width="6.90740740740741" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2115,320 +2223,320 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B13">
-        <v>2024</v>
-      </c>
-      <c r="C13" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B14">
-        <v>2024</v>
-      </c>
-      <c r="C14" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>6</v>
       </c>
-      <c r="F14">
-        <v>1</v>
+      <c r="F14" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B15">
-        <v>2024</v>
-      </c>
-      <c r="C15" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="2">
         <v>6</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16">
-        <v>2024</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16">
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
+        <v>2025</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>2025</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23">
+        <v>2025</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18">
-        <v>2024</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19">
-        <v>2024</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19">
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <v>2025</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2025</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26">
+        <v>2025</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="2">
         <v>4</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20">
-        <v>2024</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21">
-        <v>2024</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22">
-        <v>2024</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23">
-        <v>2024</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24">
-        <v>2024</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25">
-        <v>2024</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26">
-        <v>2024</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27">
+        <v>2024</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="B27">
-        <v>2024</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
-        <v>79</v>
-      </c>
       <c r="E27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>2024</v>
+      </c>
+      <c r="C28" t="s">
         <v>80</v>
       </c>
-      <c r="B28">
-        <v>2024</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>81</v>
       </c>
-      <c r="D28" t="s">
-        <v>82</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2436,13 +2544,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>2024</v>
+      </c>
+      <c r="C29" t="s">
         <v>83</v>
-      </c>
-      <c r="B29">
-        <v>2024</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>84</v>
@@ -2451,7 +2559,7 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2462,56 +2570,56 @@
         <v>2024</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31">
-        <v>2024</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B31" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E31">
+      <c r="D31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
         <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32">
         <v>2024</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
         <v>92</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2522,13 +2630,13 @@
         <v>2024</v>
       </c>
       <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
         <v>94</v>
       </c>
-      <c r="D33" t="s">
-        <v>95</v>
-      </c>
       <c r="E33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2536,19 +2644,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34">
+        <v>2024</v>
+      </c>
+      <c r="C34" t="s">
         <v>96</v>
       </c>
-      <c r="B34">
-        <v>2024</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>97</v>
       </c>
-      <c r="D34" t="s">
-        <v>98</v>
-      </c>
       <c r="E34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2556,36 +2664,36 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35">
+        <v>2024</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
         <v>99</v>
       </c>
-      <c r="B35">
-        <v>2024</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" t="s">
-        <v>101</v>
-      </c>
       <c r="E35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36">
         <v>2024</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E36">
         <v>6</v>
@@ -2596,407 +2704,407 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B37">
         <v>2024</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B38">
         <v>2024</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B39">
         <v>2024</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B40">
         <v>2024</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41">
+        <v>2024</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:6">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42">
+        <v>2024</v>
+      </c>
+      <c r="C42" t="s">
         <v>117</v>
       </c>
-      <c r="B41">
-        <v>2024</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D42" t="s">
         <v>118</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" t="s">
         <v>119</v>
       </c>
-      <c r="E41">
+      <c r="B43">
+        <v>2024</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:6">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44">
+        <v>2024</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:6">
+      <c r="A45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45">
+        <v>2024</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="1">
-        <v>3</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:6">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46">
+        <v>2024</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46">
         <v>4</v>
       </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="1">
-        <v>4</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="1">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="1" t="s">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:6">
+      <c r="A47" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B47">
+        <v>2024</v>
+      </c>
+      <c r="C47" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:6">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48">
+        <v>2024</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:6">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49">
+        <v>2024</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49">
         <v>6</v>
       </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="1">
-        <v>3</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E48" s="1">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="1">
-        <v>4</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>1</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="1">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="D50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B51">
         <v>2024</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="A52" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="1">
+      <c r="B52">
+        <v>2024</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:6">
+      <c r="A53" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53">
+        <v>2024</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
         <v>3</v>
       </c>
-      <c r="F52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" s="1">
-        <v>6</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="A54" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="1">
-        <v>2</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="B54">
+        <v>2024</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B55">
         <v>2024</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56">
-        <v>2024</v>
-      </c>
-      <c r="C56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" t="s">
-        <v>154</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
+      <c r="A56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B57" s="1">
         <v>2024</v>
@@ -3005,18 +3113,18 @@
         <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B58" s="1">
         <v>2024</v>
@@ -3025,118 +3133,118 @@
         <v>27</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B59" s="1">
         <v>2024</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B60" s="1">
         <v>2024</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E60" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F60" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B61" s="1">
         <v>2024</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
       </c>
       <c r="F61" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B62" s="1">
         <v>2024</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E62" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B63" s="1">
         <v>2024</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E63" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B64" s="1">
         <v>2024</v>
@@ -3145,178 +3253,178 @@
         <v>27</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E64" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:6">
-      <c r="A65" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B65" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="A65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65">
+        <v>2024</v>
+      </c>
+      <c r="C65" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E65" s="1">
-        <v>3</v>
-      </c>
-      <c r="F65" s="1">
-        <v>4</v>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B66" s="1">
         <v>2024</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E66" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F66" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B67" s="1">
         <v>2024</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E67" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B68" s="1">
         <v>2024</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:6">
+      <c r="A69" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69">
+        <v>2024</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:6">
+      <c r="A70" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70">
+        <v>2024</v>
+      </c>
+      <c r="C70" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" s="1">
-        <v>6</v>
-      </c>
-      <c r="F68" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:6">
-      <c r="A69" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E69" s="1">
-        <v>6</v>
-      </c>
-      <c r="F69" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E70" s="1">
-        <v>6</v>
-      </c>
-      <c r="F70" s="1">
-        <v>5</v>
+      <c r="D70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B71" s="1">
         <v>2024</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E71" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="B72" s="1">
         <v>2024</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="E72" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B73" s="1">
         <v>2024</v>
@@ -3325,227 +3433,227 @@
         <v>27</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E73" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F73" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B74" s="1">
         <v>2024</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E74" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F74" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B75" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E75" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F75" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B76" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E76" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F76" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B77" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E77" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F77" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B78" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E78" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F78" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B79" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E79" s="1">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1">
         <v>4</v>
-      </c>
-      <c r="F79" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B80" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E80" s="1">
+        <v>6</v>
+      </c>
+      <c r="F80" s="1">
         <v>4</v>
-      </c>
-      <c r="F80" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B81" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F81" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B82" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E82" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F82" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B83" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E83" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F83" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B84" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E84" s="1">
         <v>6</v>
@@ -3556,45 +3664,328 @@
     </row>
     <row r="85" s="1" customFormat="1" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B85" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E85" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F85" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="B86" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="1">
+        <v>6</v>
+      </c>
+      <c r="F86" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" s="1">
+        <v>6</v>
+      </c>
+      <c r="F87" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E88" s="1">
+        <v>6</v>
+      </c>
+      <c r="F88" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E89" s="1">
+        <v>5</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90" s="1">
+        <v>6</v>
+      </c>
+      <c r="F90" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E91" s="1">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E92" s="1">
+        <v>5</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E93" s="1">
+        <v>4</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E94" s="1">
+        <v>4</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E96" s="1">
+        <v>4</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E98" s="1">
+        <v>6</v>
+      </c>
+      <c r="F98" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B99" s="1">
         <v>2022</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E86" s="1">
-        <v>5</v>
-      </c>
-      <c r="F86" s="1">
+      <c r="C99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E99" s="1">
+        <v>5</v>
+      </c>
+      <c r="F99" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E100" s="1">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F100">
+    <sortCondition ref="B14" descending="1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/literature_list/research_articles.xlsx
+++ b/literature_list/research_articles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12300"/>
+    <workbookView windowHeight="15060"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="380">
   <si>
     <t>Title</t>
   </si>
@@ -50,12 +50,432 @@
     <t>Application Level</t>
   </si>
   <si>
+    <t>GNN-LLM hybrid cognitive architectures for generative task adaptation in multi-human multi-robot collaborative disassembly</t>
+  </si>
+  <si>
+    <t>Robotics and Computer-Integrated Manufacturing</t>
+  </si>
+  <si>
+    <t>10.1016/j.rcim.2025.103169</t>
+  </si>
+  <si>
+    <t>Towards zero-shot robot tool manipulation in industrial context: A modular VLM framework enhanced by multimodal affordance representation</t>
+  </si>
+  <si>
+    <t>10.1016/j.rcim.2025.103161</t>
+  </si>
+  <si>
+    <t>Human–robot collaborative visual inspection with Large Language Models</t>
+  </si>
+  <si>
+    <t>10.1016/j.rcim.2025.103154</t>
+  </si>
+  <si>
+    <t>Integrating large language models into manufacturing execution systems: A systematic framework for photoresist manufacturing processes</t>
+  </si>
+  <si>
+    <t>Computers and Industrial Engineering</t>
+  </si>
+  <si>
+    <t>10.1016/j.cie.2025.111599</t>
+  </si>
+  <si>
+    <t>Designing an LLM-based copilot for manufacturing equipment selection</t>
+  </si>
+  <si>
+    <t>Manufacturing Letters</t>
+  </si>
+  <si>
+    <t>10.1016/j.mfglet.2025.10.017</t>
+  </si>
+  <si>
+    <t>AI-driven design: powered by large language model and intelligent computation</t>
+  </si>
+  <si>
+    <t>International Journal of Extreme Manufacturing</t>
+  </si>
+  <si>
+    <t>10.1088/2631-7990/adea23</t>
+  </si>
+  <si>
+    <t>Enhancing retrieval-augmented generation for interoperable industrial knowledge representation and inference toward cognitive digital twins</t>
+  </si>
+  <si>
+    <t>Computers in Industry</t>
+  </si>
+  <si>
+    <t>10.1016/j.compind.2025.104330</t>
+  </si>
+  <si>
+    <t>Can pre-trained LLMs be used as out-of-the-box bottleneck detectors? An explorative study</t>
+  </si>
+  <si>
+    <t>10.1016/j.mfglet.2025.06.152</t>
+  </si>
+  <si>
+    <t>Enhancing Efficiency in Manufacturing through Automated AI Agent-Based Bearing Defect Diagnostic System</t>
+  </si>
+  <si>
+    <t>SAE Technical Papers</t>
+  </si>
+  <si>
+    <t>10.4271/2025-01-0158</t>
+  </si>
+  <si>
+    <t>Generative AI and CAD automation for diverse and novel mechanical component designs under data constraints</t>
+  </si>
+  <si>
+    <t>Discover Applied Sciences</t>
+  </si>
+  <si>
+    <t>10.1007/s42452-025-06833-5</t>
+  </si>
+  <si>
+    <t>A generative pre-trained transformer industrial bot to improve operators’ working experience in a small Industry 5.0 factory</t>
+  </si>
+  <si>
+    <t>International Journal of Advanced Manufacturing Technology</t>
+  </si>
+  <si>
+    <t>10.1007/s00170-025-15033-9</t>
+  </si>
+  <si>
+    <t>Customizable GenAI system for assisting job scheduling in a flexible manufacturing system consisting of multiple factories</t>
+  </si>
+  <si>
+    <t>10.1007/s00170-025-16958-x</t>
+  </si>
+  <si>
+    <t>Requirements Ambiguity Detection and Explanation with LLMS: An Industrial Study</t>
+  </si>
+  <si>
+    <t>2025 IEEE International Conference on Software Maintenance and Evolution</t>
+  </si>
+  <si>
+    <t>10.1109/ICSME64153.2025.00063</t>
+  </si>
+  <si>
+    <t>Large Language Model Accelerated Maintenance Insights</t>
+  </si>
+  <si>
+    <t>Proceedings of the Annual Conference of the Prognostics and Health Management Society, PHM</t>
+  </si>
+  <si>
+    <t>10.36001/phmconf.2025.v17i1.4454</t>
+  </si>
+  <si>
+    <t>IO-AutoMapper: Leveraging LLMs to Bind I/O Signal List Entries to Control Function Blocks in Industrial Automation</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Emerging Technologies and Factory Automation, ETFA</t>
+  </si>
+  <si>
+    <t>10.1109/ETFA65518.2025.11205551</t>
+  </si>
+  <si>
+    <t>Natural language-driven production planning: integrating large language models with automatic simulation model generation in manufacturing systems</t>
+  </si>
+  <si>
+    <t>Journal of Intelligent Manufacturing</t>
+  </si>
+  <si>
+    <t>10.1007/s10845-025-02732-z</t>
+  </si>
+  <si>
+    <t>Computational Intelligence-Driven Innovation in Vehicle Body Design Automation</t>
+  </si>
+  <si>
+    <t>30th International Conference on Automation and Computing</t>
+  </si>
+  <si>
+    <t>10.1109/ICAC65379.2025.11196624</t>
+  </si>
+  <si>
+    <t>A comparative study on retrieval-augmented generation and chain-of-thought applications for LLM-assisted engineering design ideation</t>
+  </si>
+  <si>
+    <t>Journal of Engineering Design</t>
+  </si>
+  <si>
+    <t>10.1080/09544828.2025.2574209</t>
+  </si>
+  <si>
+    <t>Empowering industry with Graph RAG: leveraging Generative AI for data insights and decision making</t>
+  </si>
+  <si>
+    <t>Proceedings of the Summer School Francesco Turco</t>
+  </si>
+  <si>
+    <t>Intelligent Retrieval and Knowledge Question-Answering System for Semi-Structured Operational Manuals</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Automation Science and Engineering</t>
+  </si>
+  <si>
+    <t>10.1109/CASE58245.2025.11164142</t>
+  </si>
+  <si>
+    <t>A Unified Framework for Multi-Stage Decision Optimization with Deep Reinforcement Learning and Foundation Models</t>
+  </si>
+  <si>
+    <t>10.1109/CASE58245.2025.11163883</t>
+  </si>
+  <si>
+    <t>Deploying Vision Retrieval Augmented Generation as Assistant for xPPU Maintenance</t>
+  </si>
+  <si>
+    <t>10.1109/CASE58245.2025.11164045</t>
+  </si>
+  <si>
+    <t>GenAI for Robot System Engineering</t>
+  </si>
+  <si>
+    <t>10.1109/CASE58245.2025.11163987</t>
+  </si>
+  <si>
+    <t>Enabling Interactive AI in Industry 5.0 with RAG-Enhanced GenAI Chatbots</t>
+  </si>
+  <si>
+    <t>31st ICE IEEE/ITMC Conference on Engineering, Technology, and Innovation</t>
+  </si>
+  <si>
+    <t>10.1109/ICE/ITMC65658.2025.11106634</t>
+  </si>
+  <si>
+    <t>Generative AI for Reproducible Research in Control, Automation and Robotics</t>
+  </si>
+  <si>
+    <t>Proceedings of the Annual International Conference on Control, Automation and Robotics, ICCAR</t>
+  </si>
+  <si>
+    <t>10.1109/ICCAR64901.2025.11072983</t>
+  </si>
+  <si>
+    <t>Automated Constraint Specification for Job Scheduling by Regulating Generative Model with Domain-Specific Representation</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Automation Science and Engineering</t>
+  </si>
+  <si>
+    <t>10.1109/TASE.2025.3596540</t>
+  </si>
+  <si>
+    <t>AI-Powered 3D Printing Error Detection and Optimization System</t>
+  </si>
+  <si>
+    <t>International Conference on Computational Robotics, Testing and Engineering Evaluation, ICCRTEE 2025</t>
+  </si>
+  <si>
+    <t>10.1109/ICCRTEE64519.2025.11053088</t>
+  </si>
+  <si>
+    <t>Research on Process Quality Prediction and Optimization Techniques for Solid Fuel Rocket Engine Integrated with Large Language Models</t>
+  </si>
+  <si>
+    <t>2025 5th International Conference on Artificial Intelligence and Industrial Technology Applications, AIITA 2025</t>
+  </si>
+  <si>
+    <t>10.1109/AIITA65135.2025.11047663</t>
+  </si>
+  <si>
+    <t>Can a troubleshooting AI assistant improve task performance in industrial contexts?</t>
+  </si>
+  <si>
+    <t>International Journal of Production Research</t>
+  </si>
+  <si>
+    <t>10.1080/00207543.2025.2527368</t>
+  </si>
+  <si>
+    <t>FLARE: Fine-tuned large LAnguage models for Resource-Efficient action generation in robotics</t>
+  </si>
+  <si>
+    <t>Procedia CIRP</t>
+  </si>
+  <si>
+    <t>10.1016/j.procir.2025.02.190</t>
+  </si>
+  <si>
+    <t>Fostering Empathy in AI-Driven Co-Creation of CAD Models</t>
+  </si>
+  <si>
+    <t>10.1016/j.procir.2025.02.206</t>
+  </si>
+  <si>
+    <t>On the effective co-creation of CAD models by leveraging generative artificial intelligence</t>
+  </si>
+  <si>
+    <t>10.1016/j.procir.2025.02.181</t>
+  </si>
+  <si>
+    <t>LLM-based Contrastive Representation Learning for Enhanced Maintenance Work Order Retrieval</t>
+  </si>
+  <si>
+    <t>10.1016/j.procir.2025.02.230</t>
+  </si>
+  <si>
+    <t>Leveraging AI-Powered Large Language Models to Improve Operational Safety and Efficiency in the Metal and Steel Industry</t>
+  </si>
+  <si>
+    <t>AISTech - Iron and Steel Technology Conference Proceedings</t>
+  </si>
+  <si>
+    <t>10.33313/389/250</t>
+  </si>
+  <si>
+    <t>Conceptualisation of a multimodal, non-intrusive, generative AI-based assistive system for assembly</t>
+  </si>
+  <si>
+    <t>CIRP Annals</t>
+  </si>
+  <si>
+    <t>10.1016/j.cirp.2025.04.061</t>
+  </si>
+  <si>
+    <t>Application of generative AI technologies to engineering design</t>
+  </si>
+  <si>
+    <t>10.1016/j.procir.2025.01.025</t>
+  </si>
+  <si>
+    <t>A large manufacturing decision model for human-centric decision-making</t>
+  </si>
+  <si>
+    <t>10.1016/j.cirp.2025.04.017</t>
+  </si>
+  <si>
+    <t>Generative AI for automated task modelling and task allocation in human robot collaborative applications</t>
+  </si>
+  <si>
+    <t>10.1016/j.cirp.2025.04.081</t>
+  </si>
+  <si>
+    <t>Industrial Maintenance Optimization Based on the Integration of Large Language Models (LLM) and Augmented Reality (AR)</t>
+  </si>
+  <si>
+    <t>Lecture Notes in Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-031-86489-6_20</t>
+  </si>
+  <si>
+    <t>On an AI-Based System Architecture to Generate Robotic Cells in VR Environments</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-031-86489-6_21</t>
+  </si>
+  <si>
+    <t>An Approach to Automated Instruction Generation with Grounding Using LLMs and RAG</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-031-86489-6_23</t>
+  </si>
+  <si>
+    <t>Generative AI for Intelligent Manufacturing Virtual Assistants in the Semiconductor Industry</t>
+  </si>
+  <si>
+    <t>IEEE Robotics and Automation Letters</t>
+  </si>
+  <si>
+    <t>10.1109/LRA.2025.3544506</t>
+  </si>
+  <si>
+    <t>Retrieval-Augmented Multi-LLM Ensemble for Industrial Part Specification Extraction</t>
+  </si>
+  <si>
+    <t>arXiv</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2601.05266</t>
+  </si>
+  <si>
+    <t>Intelligent Human-Machine Partnership for Manufacturing: Enhancing Warehouse Planning through Simulation-Driven Knowledge Graphs and LLM Collaboration</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2512.18265</t>
+  </si>
+  <si>
+    <t>Towards Logic-Aware Manipulation: A Knowledge Primitive for VLM-Based Assistants in Smart Manufacturing</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2512.11275</t>
+  </si>
+  <si>
+    <t>LLM-Upgraded Graph Reinforcement Learning for Carbon-Aware Job Scheduling in Smart Manufacturing</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2512.06351</t>
+  </si>
+  <si>
+    <t>An LLM-Assisted Multi-Agent Control Framework for Roll-to-Roll Manufacturing Systems</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2511.22975</t>
+  </si>
+  <si>
+    <t>Hybrid Agentic AI and Multi-Agent Systems in Smart Manufacturing</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2511.18258</t>
+  </si>
+  <si>
+    <t>Lang2Morph: Language-Driven Morphological Design of Robotic Hands</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2509.18937</t>
+  </si>
+  <si>
+    <t>Towards Open-Vocabulary Industrial Defect Understanding with a Large-Scale Multimodal Dataset</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2512.24160</t>
+  </si>
+  <si>
+    <t>CAD-Judge: Toward Efficient Morphological Grading and Verification for Text-to-CAD Generation</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2508.04002</t>
+  </si>
+  <si>
+    <t>IAD-R1: Reinforcing Consistent Reasoning in Industrial Anomaly Detection</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2508.09178</t>
+  </si>
+  <si>
+    <t>Video-to-BT: Generating Reactive Behavior Trees from Human Demonstration Videos for Robotic Assembly</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2509.16611</t>
+  </si>
+  <si>
+    <t>CADDesigner: Conceptual Design of CAD Models Based on General-Purpose Agent</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2508.01031</t>
+  </si>
+  <si>
+    <t>AutoIAD: Manager-Driven Multi-Agent Collaboration for Automated Industrial Anomaly Detection</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2508.05503</t>
+  </si>
+  <si>
+    <t>From Intent to Execution: Multimodal Chain-of-Thought Reinforcement Learning for Precise CAD Code Generation</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2508.10118</t>
+  </si>
+  <si>
+    <t>IDfRA: Self-Verification for Iterative Design in Robotic Assembly</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2509.16998</t>
+  </si>
+  <si>
     <t>Assessment of large language models for use in generative design of model based spacecraft system architectures</t>
   </si>
   <si>
-    <t>Journal of Engineering Design</t>
-  </si>
-  <si>
     <t>10.1080/09544828.2025.2453401</t>
   </si>
   <si>
@@ -113,9 +533,6 @@
     <t>LLM Evaluation Based on Aerospace Manufacturing Expertise: Automated Generation and Multi-Model Question Answering</t>
   </si>
   <si>
-    <t>arXiv</t>
-  </si>
-  <si>
     <t>10.48550/arXiv.2501.17183</t>
   </si>
   <si>
@@ -128,9 +545,6 @@
     <t>Embodied intelligence in manufacturing: leveraging large language models for autonomous industrial robotics</t>
   </si>
   <si>
-    <t>Journal of Intelligent Manufacturing</t>
-  </si>
-  <si>
     <t>10.1007/s10845-023-02294-y</t>
   </si>
   <si>
@@ -146,18 +560,12 @@
     <t>Dual data mapping with fine-tuned large language models and asset administration shells toward interoperable knowledge representation</t>
   </si>
   <si>
-    <t>Robotics and Computer-Integrated Manufacturing</t>
-  </si>
-  <si>
     <t>10.1016/j.rcim.2024.102837</t>
   </si>
   <si>
     <t>Optimizing Quadcopter Chassis Through Generative Design: A Novel Approach</t>
   </si>
   <si>
-    <t>Lecture Notes in Mechanical Engineering</t>
-  </si>
-  <si>
     <t>10.1007/978-981-97-6176-0_8</t>
   </si>
   <si>
@@ -170,15 +578,6 @@
     <t>10.1016/j.jmsy.2025.03.012</t>
   </si>
   <si>
-    <t>A generative pre-trained transformer industrial bot to improve operators’ working experience in a small Industry 5.0 factory</t>
-  </si>
-  <si>
-    <t>International Journal of Advanced Manufacturing Technology</t>
-  </si>
-  <si>
-    <t>10.1007/s00170-025-15033-9</t>
-  </si>
-  <si>
     <t>Generative AI in AI-Based Digital Twins for Fault Diagnosis for Predictive Maintenance in Industry 4.0/5.0</t>
   </si>
   <si>
@@ -188,15 +587,6 @@
     <t>10.3390/app15063166</t>
   </si>
   <si>
-    <t>Generative AI and CAD automation for diverse and novel mechanical component designs under data constraints</t>
-  </si>
-  <si>
-    <t>Discover Applied Sciences</t>
-  </si>
-  <si>
-    <t>10.1007/s42452-025-06833-5</t>
-  </si>
-  <si>
     <t>LLM4CAD: Multimodal Large Language Models for Three-Dimensional Computer-Aided Design Generation</t>
   </si>
   <si>
@@ -224,15 +614,6 @@
     <t>10.1109/SoutheastCon56624.2025.10971689</t>
   </si>
   <si>
-    <t>A large manufacturing decision model for human-centric decision-making</t>
-  </si>
-  <si>
-    <t>CIRP Annals</t>
-  </si>
-  <si>
-    <t>10.1016/j.cirp.2025.04.017</t>
-  </si>
-  <si>
     <t>AInnovation - Integrating Artificial Intelligence and Innovation in the Design of Intelligent Technical Systems</t>
   </si>
   <si>
@@ -251,15 +632,6 @@
     <t>10.1109/RAMS48127.2025.10935137</t>
   </si>
   <si>
-    <t>Generative AI for Intelligent Manufacturing Virtual Assistants in the Semiconductor Industry</t>
-  </si>
-  <si>
-    <t>IEEE Robotics and Automation Letters</t>
-  </si>
-  <si>
-    <t>10.1109/LRA.2025.3544506</t>
-  </si>
-  <si>
     <t>The E(G)TL Model: A Novel Approach for Efficient Data Handling and Extraction in Multivariate Systems</t>
   </si>
   <si>
@@ -341,9 +713,6 @@
     <t>Enhancing sustainability in manufacturing through cognitive digital twins powered by generative artificial intelligence</t>
   </si>
   <si>
-    <t>Procedia CIRP</t>
-  </si>
-  <si>
     <t>10.1016/j.procir.2024.10.147</t>
   </si>
   <si>
@@ -404,9 +773,6 @@
     <t>Integrating Generative AI for Enhanced Automation in System Design Processes</t>
   </si>
   <si>
-    <t>IEEE International Conference on Emerging Technologies and Factory Automation, ETFA</t>
-  </si>
-  <si>
     <t>10.1109/ETFA61755.2024.10710979</t>
   </si>
   <si>
@@ -491,16 +857,10 @@
     <t>From natural language to simulations: applying AI to automate simulation modelling of logistics systems</t>
   </si>
   <si>
-    <t>International Journal of Production Research</t>
-  </si>
-  <si>
     <t>10.1080/00207543.2023.2276811</t>
   </si>
   <si>
     <t>Large language model based agent for process planning of fiber composite structures</t>
-  </si>
-  <si>
-    <t>Manufacturing Letters</t>
   </si>
   <si>
     <t>10.1016/j.mfglet.2024.03.010</t>
@@ -1425,7 +1785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1433,6 +1793,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1968,18 +2331,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="60" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A59" sqref="$A59:$XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="84.2685185185185" customWidth="1"/>
-    <col min="2" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="7.26851851851852" customWidth="1"/>
-    <col min="6" max="6" width="6.90740740740741" customWidth="1"/>
+    <col min="1" max="1" width="84.2692307692308" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="74.7788461538462" customWidth="1"/>
+    <col min="4" max="4" width="17.4807692307692" customWidth="1"/>
+    <col min="5" max="5" width="17.9711538461538" customWidth="1"/>
+    <col min="6" max="6" width="17.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2003,300 +2368,300 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>2025</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2025</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2025</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2025</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>2025</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>2025</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>2025</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>2025</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>2025</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" t="s">
+      <c r="B12" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
-        <v>2025</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13">
-        <v>2025</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14">
-        <v>2025</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15">
-        <v>2025</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16">
-        <v>2025</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -2304,59 +2669,59 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17">
-        <v>2025</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18">
-        <v>2025</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B19">
-        <v>2025</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
@@ -2364,19 +2729,17 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2">
         <v>2025</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -2384,19 +2747,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21">
+        <v>58</v>
+      </c>
+      <c r="B21" s="2">
         <v>2025</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -2404,16 +2767,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2">
         <v>2025</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
@@ -2424,59 +2787,59 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2">
         <v>2025</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24">
+        <v>65</v>
+      </c>
+      <c r="B24" s="2">
         <v>2025</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E24" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
+        <v>67</v>
+      </c>
+      <c r="B25" s="2">
         <v>2025</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -2484,1501 +2847,2641 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B26">
-        <v>2025</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="2">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B27">
-        <v>2024</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B28">
-        <v>2024</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E28">
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="2">
         <v>6</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29">
-        <v>2024</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29">
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="2">
         <v>6</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30">
-        <v>2024</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30">
+      <c r="D34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="2">
         <v>6</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44">
+        <v>2025</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45">
+        <v>2025</v>
+      </c>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46">
+        <v>2025</v>
+      </c>
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32">
-        <v>2024</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32">
+      <c r="F46">
         <v>3</v>
       </c>
-      <c r="F32">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47">
+        <v>2025</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48">
+        <v>2025</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49">
+        <v>2025</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33">
-        <v>2024</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34">
-        <v>2024</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35">
-        <v>2024</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36">
-        <v>2024</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36">
-        <v>6</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37">
-        <v>2024</v>
-      </c>
-      <c r="C37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38">
-        <v>2024</v>
-      </c>
-      <c r="C38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39">
-        <v>2024</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40">
-        <v>2024</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41">
-        <v>2024</v>
-      </c>
-      <c r="C41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42">
-        <v>2024</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="F49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50">
+        <v>2025</v>
+      </c>
+      <c r="C50" t="s">
         <v>117</v>
       </c>
-      <c r="D42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43">
-        <v>2024</v>
-      </c>
-      <c r="C43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:6">
-      <c r="A44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44">
-        <v>2024</v>
-      </c>
-      <c r="C44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45">
-        <v>2024</v>
-      </c>
-      <c r="C45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46">
-        <v>2024</v>
-      </c>
-      <c r="C46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47">
-        <v>2024</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D50" t="s">
         <v>130</v>
-      </c>
-      <c r="D47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48">
-        <v>2024</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48">
-        <v>5</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49">
-        <v>2024</v>
-      </c>
-      <c r="C49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50">
-        <v>2024</v>
-      </c>
-      <c r="C50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" t="s">
-        <v>140</v>
       </c>
       <c r="E50">
         <v>6</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B51">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B52">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E52">
         <v>6</v>
       </c>
       <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B53">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:6">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B54">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55">
+        <v>2025</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56">
+        <v>2025</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57">
+        <v>2025</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58">
+        <v>2025</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59">
+        <v>2025</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60">
+        <v>2025</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
         <v>152</v>
       </c>
-      <c r="B55">
-        <v>2024</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B61">
+        <v>2025</v>
+      </c>
+      <c r="C61" t="s">
         <v>153</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D61" t="s">
         <v>154</v>
       </c>
-      <c r="E55">
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62">
+        <v>2025</v>
+      </c>
+      <c r="C62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63">
+        <v>2025</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64">
+        <v>2025</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65">
+        <v>2025</v>
+      </c>
+      <c r="C65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66">
+        <v>2025</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67">
+        <v>2025</v>
+      </c>
+      <c r="C67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
         <v>3</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" s="1">
-        <v>3</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B57" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" s="1">
-        <v>4</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:6">
-      <c r="A58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B58" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E58" s="1">
-        <v>4</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:6">
-      <c r="A59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" s="1">
-        <v>4</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E60" s="1">
-        <v>6</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:6">
-      <c r="A61" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" s="1">
-        <v>3</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E62" s="1">
-        <v>4</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:6">
-      <c r="A63" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E63" s="1">
-        <v>4</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:6">
-      <c r="A64" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B64" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E64" s="1">
-        <v>4</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:6">
-      <c r="A65" t="s">
-        <v>175</v>
-      </c>
-      <c r="B65">
-        <v>2024</v>
-      </c>
-      <c r="C65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" t="s">
-        <v>176</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:6">
-      <c r="A66" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E66" s="1">
-        <v>3</v>
-      </c>
-      <c r="F66" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:6">
-      <c r="A67" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B67" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E67" s="1">
-        <v>6</v>
-      </c>
-      <c r="F67" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B68" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E68" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:6">
       <c r="A69" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69">
+        <v>2025</v>
+      </c>
+      <c r="C69" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70">
+        <v>2025</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="2">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71">
+        <v>2025</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="2">
+        <v>6</v>
+      </c>
+      <c r="F71" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72">
+        <v>2025</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="2">
+        <v>5</v>
+      </c>
+      <c r="F72" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73">
+        <v>2025</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="2">
+        <v>5</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74">
+        <v>2025</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75">
+        <v>2025</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="2">
+        <v>6</v>
+      </c>
+      <c r="F75" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76">
+        <v>2025</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B69">
-        <v>2024</v>
-      </c>
-      <c r="C69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="D76" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:6">
-      <c r="A70" t="s">
+      <c r="E76" s="2">
+        <v>5</v>
+      </c>
+      <c r="F76" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B70">
-        <v>2024</v>
-      </c>
-      <c r="C70" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="B77">
+        <v>2025</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E70">
-        <v>4</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:6">
-      <c r="A71" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B71" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="E77" s="2">
+        <v>5</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="B78">
+        <v>2025</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B72" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="1:6">
-      <c r="A73" s="1" t="s">
+      <c r="F78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79">
+        <v>2025</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="2">
+        <v>5</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="B80">
+        <v>2025</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E73" s="1">
-        <v>2</v>
-      </c>
-      <c r="F73" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="1:6">
-      <c r="A74" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B74" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="E80" s="2">
+        <v>6</v>
+      </c>
+      <c r="F80" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E74" s="1">
-        <v>3</v>
-      </c>
-      <c r="F74" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:6">
-      <c r="A75" s="1" t="s">
+      <c r="B81">
+        <v>2025</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B75" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E75" s="1">
-        <v>3</v>
-      </c>
-      <c r="F75" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:6">
-      <c r="A76" s="1" t="s">
+      <c r="E81" s="2">
+        <v>5</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82">
+        <v>2025</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" s="2">
+        <v>6</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83">
+        <v>2025</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="2">
+        <v>4</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
         <v>200</v>
       </c>
-      <c r="B76" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B84">
+        <v>2024</v>
+      </c>
+      <c r="C84" t="s">
         <v>201</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D84" t="s">
         <v>202</v>
       </c>
-      <c r="E76" s="1">
-        <v>3</v>
-      </c>
-      <c r="F76" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:6">
-      <c r="A77" s="1" t="s">
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
         <v>203</v>
       </c>
-      <c r="B77" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="B85">
+        <v>2024</v>
+      </c>
+      <c r="C85" t="s">
         <v>204</v>
       </c>
-      <c r="E77" s="1">
-        <v>5</v>
-      </c>
-      <c r="F77" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:6">
-      <c r="A78" s="1" t="s">
+      <c r="D85" t="s">
         <v>205</v>
       </c>
-      <c r="B78" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
         <v>206</v>
       </c>
-      <c r="E78" s="1">
-        <v>3</v>
-      </c>
-      <c r="F78" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:6">
-      <c r="A79" s="1" t="s">
+      <c r="B86">
+        <v>2024</v>
+      </c>
+      <c r="C86" t="s">
         <v>207</v>
       </c>
-      <c r="B79" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="D86" t="s">
         <v>208</v>
       </c>
-      <c r="E79" s="1">
-        <v>3</v>
-      </c>
-      <c r="F79" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:6">
-      <c r="A80" s="1" t="s">
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
         <v>209</v>
       </c>
-      <c r="B80" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="B87">
+        <v>2024</v>
+      </c>
+      <c r="C87" t="s">
         <v>210</v>
       </c>
-      <c r="E80" s="1">
+      <c r="D87" t="s">
+        <v>211</v>
+      </c>
+      <c r="E87">
         <v>6</v>
       </c>
-      <c r="F80" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B81" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E81" s="1">
-        <v>5</v>
-      </c>
-      <c r="F81" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:6">
-      <c r="A82" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B82" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E82" s="1">
-        <v>6</v>
-      </c>
-      <c r="F82" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:6">
-      <c r="A83" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B83" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E83" s="1">
-        <v>6</v>
-      </c>
-      <c r="F83" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:6">
-      <c r="A84" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B84" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E84" s="1">
-        <v>6</v>
-      </c>
-      <c r="F84" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:6">
-      <c r="A85" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B85" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E85" s="1">
-        <v>6</v>
-      </c>
-      <c r="F85" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:6">
-      <c r="A86" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E86" s="1">
-        <v>6</v>
-      </c>
-      <c r="F86" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B87" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87" s="1">
-        <v>6</v>
-      </c>
-      <c r="F87" s="1">
-        <v>5</v>
+      <c r="F87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>215</v>
+      </c>
+      <c r="B89">
+        <v>2024</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" t="s">
+        <v>216</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>217</v>
+      </c>
+      <c r="B90">
+        <v>2024</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91">
+        <v>2024</v>
+      </c>
+      <c r="C91" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92">
+        <v>2024</v>
+      </c>
+      <c r="C92" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" t="s">
+        <v>223</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93">
+        <v>2024</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>225</v>
+      </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
         <v>226</v>
       </c>
-      <c r="B88" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="B94">
+        <v>2024</v>
+      </c>
+      <c r="C94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" t="s">
         <v>227</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95">
+        <v>2024</v>
+      </c>
+      <c r="C95" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95" t="s">
+        <v>230</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>231</v>
+      </c>
+      <c r="B96">
+        <v>2024</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96">
         <v>6</v>
       </c>
-      <c r="F88" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B89" s="1">
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>233</v>
+      </c>
+      <c r="B97">
+        <v>2024</v>
+      </c>
+      <c r="C97" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" t="s">
+        <v>235</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>236</v>
+      </c>
+      <c r="B98">
+        <v>2024</v>
+      </c>
+      <c r="C98" t="s">
+        <v>237</v>
+      </c>
+      <c r="D98" t="s">
+        <v>238</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:6">
+      <c r="A99" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99">
+        <v>2024</v>
+      </c>
+      <c r="C99" t="s">
+        <v>240</v>
+      </c>
+      <c r="D99" t="s">
+        <v>241</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="1:6">
+      <c r="A100" t="s">
+        <v>242</v>
+      </c>
+      <c r="B100">
+        <v>2024</v>
+      </c>
+      <c r="C100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" t="s">
+        <v>243</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="1:6">
+      <c r="A101" t="s">
+        <v>244</v>
+      </c>
+      <c r="B101">
+        <v>2024</v>
+      </c>
+      <c r="C101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" t="s">
+        <v>245</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="1:6">
+      <c r="A102" t="s">
+        <v>246</v>
+      </c>
+      <c r="B102">
+        <v>2024</v>
+      </c>
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" t="s">
+        <v>247</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="1:6">
+      <c r="A103" t="s">
+        <v>248</v>
+      </c>
+      <c r="B103">
+        <v>2024</v>
+      </c>
+      <c r="C103" t="s">
+        <v>249</v>
+      </c>
+      <c r="D103" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="1:6">
+      <c r="A104" t="s">
+        <v>251</v>
+      </c>
+      <c r="B104">
+        <v>2024</v>
+      </c>
+      <c r="C104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D104" t="s">
+        <v>253</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:6">
+      <c r="A105" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105">
+        <v>2024</v>
+      </c>
+      <c r="C105" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" t="s">
+        <v>256</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="1:6">
+      <c r="A106" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106">
+        <v>2024</v>
+      </c>
+      <c r="C106" t="s">
+        <v>258</v>
+      </c>
+      <c r="D106" t="s">
+        <v>259</v>
+      </c>
+      <c r="E106">
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="1:6">
+      <c r="A107" t="s">
+        <v>260</v>
+      </c>
+      <c r="B107">
+        <v>2024</v>
+      </c>
+      <c r="C107" t="s">
+        <v>261</v>
+      </c>
+      <c r="D107" t="s">
+        <v>262</v>
+      </c>
+      <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>263</v>
+      </c>
+      <c r="B108">
+        <v>2024</v>
+      </c>
+      <c r="C108" t="s">
+        <v>264</v>
+      </c>
+      <c r="D108" t="s">
+        <v>265</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="1:6">
+      <c r="A109" t="s">
+        <v>266</v>
+      </c>
+      <c r="B109">
+        <v>2024</v>
+      </c>
+      <c r="C109" t="s">
+        <v>267</v>
+      </c>
+      <c r="D109" t="s">
+        <v>268</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="1:6">
+      <c r="A110" t="s">
+        <v>269</v>
+      </c>
+      <c r="B110">
+        <v>2024</v>
+      </c>
+      <c r="C110" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" t="s">
+        <v>271</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="1:6">
+      <c r="A111" t="s">
+        <v>272</v>
+      </c>
+      <c r="B111">
+        <v>2024</v>
+      </c>
+      <c r="C111" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" t="s">
+        <v>273</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>274</v>
+      </c>
+      <c r="B112">
+        <v>2024</v>
+      </c>
+      <c r="C112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" t="s">
+        <v>275</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E113" s="1">
+        <v>3</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E114" s="1">
+        <v>4</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E115" s="1">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E116" s="1">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E117" s="1">
+        <v>6</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E118" s="1">
+        <v>3</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E119" s="1">
+        <v>4</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E120" s="1">
+        <v>4</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="1" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E121" s="1">
+        <v>4</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="1" spans="1:6">
+      <c r="A122" t="s">
+        <v>295</v>
+      </c>
+      <c r="B122">
+        <v>2024</v>
+      </c>
+      <c r="C122" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122" t="s">
+        <v>296</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" s="1" customFormat="1" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E123" s="1">
+        <v>3</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" s="1" customFormat="1" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E124" s="1">
+        <v>6</v>
+      </c>
+      <c r="F124" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" s="1" customFormat="1" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2</v>
+      </c>
+      <c r="F125" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="1" spans="1:6">
+      <c r="A126" t="s">
+        <v>306</v>
+      </c>
+      <c r="B126">
+        <v>2024</v>
+      </c>
+      <c r="C126" t="s">
+        <v>229</v>
+      </c>
+      <c r="D126" t="s">
+        <v>307</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="1" spans="1:6">
+      <c r="A127" t="s">
+        <v>308</v>
+      </c>
+      <c r="B127">
+        <v>2024</v>
+      </c>
+      <c r="C127" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" t="s">
+        <v>309</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="1" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" s="1" customFormat="1" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+      <c r="F130" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" s="1" customFormat="1" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E131" s="1">
+        <v>3</v>
+      </c>
+      <c r="F131" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E132" s="1">
+        <v>3</v>
+      </c>
+      <c r="F132" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="1" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B133" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E133" s="1">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="1" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E134" s="1">
+        <v>5</v>
+      </c>
+      <c r="F134" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3</v>
+      </c>
+      <c r="F135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3</v>
+      </c>
+      <c r="F136" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="1" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E137" s="1">
+        <v>6</v>
+      </c>
+      <c r="F137" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E138" s="1">
+        <v>5</v>
+      </c>
+      <c r="F138" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" s="1" customFormat="1" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E139" s="1">
+        <v>6</v>
+      </c>
+      <c r="F139" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" s="1" customFormat="1" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E140" s="1">
+        <v>6</v>
+      </c>
+      <c r="F140" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E141" s="1">
+        <v>6</v>
+      </c>
+      <c r="F141" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="1" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E142" s="1">
+        <v>6</v>
+      </c>
+      <c r="F142" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E143" s="1">
+        <v>6</v>
+      </c>
+      <c r="F143" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E144" s="1">
+        <v>6</v>
+      </c>
+      <c r="F144" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E145" s="1">
+        <v>6</v>
+      </c>
+      <c r="F145" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B146" s="1">
         <v>2023</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E89" s="1">
-        <v>5</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B90" s="1">
+      <c r="C146" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E146" s="1">
+        <v>5</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B147" s="1">
         <v>2023</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E90" s="1">
+      <c r="C147" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E147" s="1">
         <v>6</v>
       </c>
-      <c r="F90" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B91" s="1">
+      <c r="F147" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B148" s="1">
         <v>2023</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E91" s="1">
+      <c r="C148" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E148" s="1">
         <v>3</v>
       </c>
-      <c r="F91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B92" s="1">
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B149" s="1">
         <v>2023</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C149" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E149" s="1">
+        <v>5</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E150" s="1">
+        <v>4</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E151" s="1">
+        <v>4</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E153" s="1">
+        <v>4</v>
+      </c>
+      <c r="F153" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E154" s="1">
+        <v>3</v>
+      </c>
+      <c r="F154" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E155" s="1">
+        <v>6</v>
+      </c>
+      <c r="F155" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E92" s="1">
-        <v>5</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B93" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E93" s="1">
-        <v>4</v>
-      </c>
-      <c r="F93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B94" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E94" s="1">
-        <v>4</v>
-      </c>
-      <c r="F94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B95" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E95" s="1">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B96" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E96" s="1">
-        <v>4</v>
-      </c>
-      <c r="F96" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B97" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E97" s="1">
-        <v>3</v>
-      </c>
-      <c r="F97" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B98" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E98" s="1">
+      <c r="D156" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E156" s="1">
+        <v>5</v>
+      </c>
+      <c r="F156" s="1">
         <v>6</v>
       </c>
-      <c r="F98" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B99" s="1">
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B157" s="1">
         <v>2022</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E99" s="1">
-        <v>5</v>
-      </c>
-      <c r="F99" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B100" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E100" s="1">
-        <v>5</v>
-      </c>
-      <c r="F100" s="1">
+      <c r="C157" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E157" s="1">
+        <v>5</v>
+      </c>
+      <c r="F157" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3987,6 +5490,7 @@
     <sortCondition ref="B14" descending="1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>